--- a/chatbot/chatbot/2016031_HappyCat.xlsx
+++ b/chatbot/chatbot/2016031_HappyCat.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20357"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA739FD9-9D4B-460A-975B-738A1807A3F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274BB6F1-745D-41EF-B7C6-04E213E3224B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -492,6 +492,16 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>チャットボットの終了部分</t>
+    <rPh sb="8" eb="10">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブブン</t>
     </rPh>
     <phoneticPr fontId="29"/>
   </si>
@@ -1545,23 +1555,23 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2170,11 +2180,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL38"/>
+  <dimension ref="A1:BL39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2226,106 +2236,106 @@
       <c r="B3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="94">
+      <c r="D3" s="94"/>
+      <c r="E3" s="92">
         <v>45028</v>
       </c>
-      <c r="F3" s="94"/>
+      <c r="F3" s="92"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="89">
         <f>I5</f>
         <v>45026</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="91">
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="89">
         <f>P5</f>
         <v>45033</v>
       </c>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="91">
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="89">
         <f>W5</f>
         <v>45040</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="91">
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="89">
         <f>AD5</f>
         <v>45047</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="91">
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="89">
         <f>AK5</f>
         <v>45054</v>
       </c>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="91">
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="89">
         <f>AR5</f>
         <v>45061</v>
       </c>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="91">
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="89">
         <f>AY5</f>
         <v>45068</v>
       </c>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="91">
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="89">
         <f>BF5</f>
         <v>45075</v>
       </c>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="93"/>
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="91"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -2890,7 +2900,7 @@
       <c r="F8" s="68"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36" t="str">
-        <f t="shared" ref="H8:H35" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="H8:H36" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="I8" s="5"/>
@@ -3510,7 +3520,9 @@
         <v>68</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="37"/>
+      <c r="D16" s="37">
+        <v>1</v>
+      </c>
       <c r="E16" s="81">
         <v>45048</v>
       </c>
@@ -3884,7 +3896,7 @@
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="82">
         <f>F19+1</f>
@@ -3959,25 +3971,18 @@
     <row r="22" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="86" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C22" s="17"/>
-      <c r="D22" s="40">
-        <v>0</v>
-      </c>
+      <c r="D22" s="40"/>
       <c r="E22" s="82">
-        <f>F21+3</f>
-        <v>45061</v>
+        <v>45056</v>
       </c>
       <c r="F22" s="82">
-        <f>E22+4</f>
-        <v>45065</v>
+        <v>45056</v>
       </c>
       <c r="G22" s="36"/>
-      <c r="H22" s="36">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="H22" s="36"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -4036,21 +4041,21 @@
       <c r="BL22" s="5"/>
     </row>
     <row r="23" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="40">
         <v>0</v>
       </c>
       <c r="E23" s="82">
-        <f>F22+3</f>
-        <v>45068</v>
+        <f>F21+3</f>
+        <v>45061</v>
       </c>
       <c r="F23" s="82">
         <f>E23+4</f>
-        <v>45072</v>
+        <v>45065</v>
       </c>
       <c r="G23" s="36"/>
       <c r="H23" s="36">
@@ -4069,8 +4074,8 @@
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
@@ -4117,17 +4122,19 @@
     <row r="24" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="86" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C24" s="17"/>
-      <c r="D24" s="40"/>
+      <c r="D24" s="40">
+        <v>0</v>
+      </c>
       <c r="E24" s="82">
         <f>F23+3</f>
-        <v>45075</v>
+        <v>45068</v>
       </c>
       <c r="F24" s="82">
         <f>E24+4</f>
-        <v>45079</v>
+        <v>45072</v>
       </c>
       <c r="G24" s="36"/>
       <c r="H24" s="36">
@@ -4146,8 +4153,8 @@
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
@@ -4192,20 +4199,24 @@
       <c r="BL24" s="5"/>
     </row>
     <row r="25" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="82">
+        <f>F24+3</f>
+        <v>45075</v>
+      </c>
+      <c r="F25" s="82">
+        <f>E25+4</f>
+        <v>45079</v>
+      </c>
       <c r="G25" s="36"/>
-      <c r="H25" s="36" t="str">
+      <c r="H25" s="36">
         <f t="shared" si="5"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -4265,22 +4276,20 @@
       <c r="BL25" s="5"/>
     </row>
     <row r="26" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8"/>
-      <c r="B26" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="83" t="s">
-        <v>23</v>
-      </c>
+      <c r="A26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="72"/>
       <c r="G26" s="36"/>
-      <c r="H26" s="36" t="e">
+      <c r="H26" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -4342,7 +4351,7 @@
     <row r="27" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="43"/>
@@ -4417,7 +4426,7 @@
     <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="43"/>
@@ -4490,20 +4499,22 @@
       <c r="BL28" s="5"/>
     </row>
     <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="74"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="83" t="s">
+        <v>23</v>
+      </c>
       <c r="G29" s="36"/>
-      <c r="H29" s="36" t="str">
+      <c r="H29" s="36" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -4563,22 +4574,20 @@
       <c r="BL29" s="5"/>
     </row>
     <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8"/>
-      <c r="B30" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="84" t="s">
-        <v>23</v>
-      </c>
+      <c r="A30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="74"/>
       <c r="G30" s="36"/>
-      <c r="H30" s="36" t="e">
+      <c r="H30" s="36" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -4640,7 +4649,7 @@
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="46"/>
@@ -4715,7 +4724,7 @@
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="46"/>
@@ -4790,7 +4799,7 @@
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="46"/>
@@ -4863,18 +4872,22 @@
       <c r="BL33" s="5"/>
     </row>
     <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="84" t="s">
+        <v>23</v>
+      </c>
       <c r="G34" s="36"/>
-      <c r="H34" s="36" t="str">
+      <c r="H34" s="36" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -4934,104 +4947,175 @@
       <c r="BL34" s="5"/>
     </row>
     <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51" t="str">
+      <c r="A35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="7"/>
-      <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="7"/>
-      <c r="AH35" s="7"/>
-      <c r="AI35" s="7"/>
-      <c r="AJ35" s="7"/>
-      <c r="AK35" s="7"/>
-      <c r="AL35" s="7"/>
-      <c r="AM35" s="7"/>
-      <c r="AN35" s="7"/>
-      <c r="AO35" s="7"/>
-      <c r="AP35" s="7"/>
-      <c r="AQ35" s="7"/>
-      <c r="AR35" s="7"/>
-      <c r="AS35" s="7"/>
-      <c r="AT35" s="7"/>
-      <c r="AU35" s="7"/>
-      <c r="AV35" s="7"/>
-      <c r="AW35" s="7"/>
-      <c r="AX35" s="7"/>
-      <c r="AY35" s="7"/>
-      <c r="AZ35" s="7"/>
-      <c r="BA35" s="7"/>
-      <c r="BB35" s="7"/>
-      <c r="BC35" s="7"/>
-      <c r="BD35" s="7"/>
-      <c r="BE35" s="7"/>
-      <c r="BF35" s="7"/>
-      <c r="BG35" s="7"/>
-      <c r="BH35" s="7"/>
-      <c r="BI35" s="7"/>
-      <c r="BJ35" s="7"/>
-      <c r="BK35" s="7"/>
-      <c r="BL35" s="7"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="5"/>
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="5"/>
+      <c r="AT35" s="5"/>
+      <c r="AU35" s="5"/>
+      <c r="AV35" s="5"/>
+      <c r="AW35" s="5"/>
+      <c r="AX35" s="5"/>
+      <c r="AY35" s="5"/>
+      <c r="AZ35" s="5"/>
+      <c r="BA35" s="5"/>
+      <c r="BB35" s="5"/>
+      <c r="BC35" s="5"/>
+      <c r="BD35" s="5"/>
+      <c r="BE35" s="5"/>
+      <c r="BF35" s="5"/>
+      <c r="BG35" s="5"/>
+      <c r="BH35" s="5"/>
+      <c r="BI35" s="5"/>
+      <c r="BJ35" s="5"/>
+      <c r="BK35" s="5"/>
+      <c r="BL35" s="5"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G36" s="3"/>
+    <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="49"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="7"/>
+      <c r="AP36" s="7"/>
+      <c r="AQ36" s="7"/>
+      <c r="AR36" s="7"/>
+      <c r="AS36" s="7"/>
+      <c r="AT36" s="7"/>
+      <c r="AU36" s="7"/>
+      <c r="AV36" s="7"/>
+      <c r="AW36" s="7"/>
+      <c r="AX36" s="7"/>
+      <c r="AY36" s="7"/>
+      <c r="AZ36" s="7"/>
+      <c r="BA36" s="7"/>
+      <c r="BB36" s="7"/>
+      <c r="BC36" s="7"/>
+      <c r="BD36" s="7"/>
+      <c r="BE36" s="7"/>
+      <c r="BF36" s="7"/>
+      <c r="BG36" s="7"/>
+      <c r="BH36" s="7"/>
+      <c r="BI36" s="7"/>
+      <c r="BJ36" s="7"/>
+      <c r="BK36" s="7"/>
+      <c r="BL36" s="7"/>
     </row>
     <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="52"/>
-      <c r="F37" s="53"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="54"/>
+      <c r="C38" s="52"/>
+      <c r="F38" s="53"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="D7:D35">
+  <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5045,12 +5129,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL35">
+  <conditionalFormatting sqref="I5:BL36">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL35">
+  <conditionalFormatting sqref="I7:BL36">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
@@ -5074,7 +5158,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="34" max="16383" man="1"/>
+    <brk id="35" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5092,7 +5176,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D35</xm:sqref>
+          <xm:sqref>D7:D36</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5208,15 +5292,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="fa8f90d0-5959-4a4e-b4e7-ff8915dc4e80" xsi:nil="true"/>
@@ -5225,6 +5300,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5433,14 +5517,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -5453,6 +5529,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
